--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JMMerchPageViewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790B00C-FE0E-403B-A0BB-D776BA10884D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DDC0C4-6965-44DE-A5BD-557C9870D317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{1CB7F637-26D8-4BBA-970E-3AD462A17243}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Category</t>
   </si>
@@ -84,6 +84,21 @@
   </si>
   <si>
     <t xml:space="preserve"> DDECOR PARCHMENT-WHITE Cotton King Double Bedsheet With 2 Pillow Covers (274 cm X 274 cm) </t>
+  </si>
+  <si>
+    <t>https://www.jiomart.com/images/product/original/493829714/status-red-cotton-bath-towel-70x140-cm-product-images-o493829714-p602025186-0-202305311218.jpg?im=Resize=(420,420)</t>
+  </si>
+  <si>
+    <t>Status Red Cotton Bath Towel 70X140 cm</t>
+  </si>
+  <si>
+    <t>Bath Towel</t>
+  </si>
+  <si>
+    <t>https://www.jiomart.com/images/product/original/493829715/status-grey-cotton-bath-towel-140x70-cm-product-images-o493829715-p602025104-0-202305311215.jpg?im=Resize=(420,420)</t>
+  </si>
+  <si>
+    <t>Status Grey Cotton Bath Towel 140x70 cm</t>
   </si>
 </sst>
 </file>
@@ -446,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6507FEB1-34B4-40E2-AD31-0EA35535F449}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -561,12 +576,54 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>199</v>
+      </c>
+      <c r="E6">
+        <v>399</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>199</v>
+      </c>
+      <c r="E7">
+        <v>499</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{DC691B41-0037-4B69-8739-E13B5DBED719}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{0B1F1544-0032-4F16-8F9E-C9540F249B08}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{12371689-BCDD-4577-AC39-BFADA05AA711}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{6CCC0F25-7EE3-4529-9633-923589A03AFB}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{E1710E4B-4BE2-4FCC-B0E6-1CD7D237478E}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{B9634C1B-4542-4A7C-B877-D1BC127BCBF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JMMerchPageViewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DDC0C4-6965-44DE-A5BD-557C9870D317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEBAD2A-1DD2-4680-A93E-FB8516C71301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{1CB7F637-26D8-4BBA-970E-3AD462A17243}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Category</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Status Grey Cotton Bath Towel 140x70 cm</t>
+  </si>
+  <si>
+    <t>Discount</t>
   </si>
 </sst>
 </file>
@@ -143,9 +146,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -461,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6507FEB1-34B4-40E2-AD31-0EA35535F449}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -473,10 +477,10 @@
     <col min="2" max="2" width="7.4609375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="87.921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.69140625" customWidth="1"/>
+    <col min="5" max="6" width="9.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,10 +497,13 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -507,16 +514,20 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>685</v>
+        <v>379</v>
       </c>
       <c r="E2">
-        <v>899</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F2" s="2">
+        <f>ROUND(ABS(D2/E2-1)*100,0)</f>
+        <v>75</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -532,11 +543,15 @@
       <c r="E3">
         <v>199</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F7" si="0">ROUND(ABS(D3/E3-1)*100,0)</f>
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -552,11 +567,15 @@
       <c r="E4">
         <v>3999</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -572,11 +591,15 @@
       <c r="E5">
         <v>3599</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -592,11 +615,15 @@
       <c r="E6">
         <v>399</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -612,18 +639,22 @@
       <c r="E7">
         <v>499</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{DC691B41-0037-4B69-8739-E13B5DBED719}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{0B1F1544-0032-4F16-8F9E-C9540F249B08}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{12371689-BCDD-4577-AC39-BFADA05AA711}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{6CCC0F25-7EE3-4529-9633-923589A03AFB}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{E1710E4B-4BE2-4FCC-B0E6-1CD7D237478E}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{B9634C1B-4542-4A7C-B877-D1BC127BCBF1}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{DC691B41-0037-4B69-8739-E13B5DBED719}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{0B1F1544-0032-4F16-8F9E-C9540F249B08}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{12371689-BCDD-4577-AC39-BFADA05AA711}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{6CCC0F25-7EE3-4529-9633-923589A03AFB}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{E1710E4B-4BE2-4FCC-B0E6-1CD7D237478E}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{B9634C1B-4542-4A7C-B877-D1BC127BCBF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JMMerchPageViewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEBAD2A-1DD2-4680-A93E-FB8516C71301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145B5486-55CA-4613-AE70-9B0062FE1BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{1CB7F637-26D8-4BBA-970E-3AD462A17243}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Category</t>
   </si>
@@ -84,21 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve"> DDECOR PARCHMENT-WHITE Cotton King Double Bedsheet With 2 Pillow Covers (274 cm X 274 cm) </t>
-  </si>
-  <si>
-    <t>https://www.jiomart.com/images/product/original/493829714/status-red-cotton-bath-towel-70x140-cm-product-images-o493829714-p602025186-0-202305311218.jpg?im=Resize=(420,420)</t>
-  </si>
-  <si>
-    <t>Status Red Cotton Bath Towel 70X140 cm</t>
-  </si>
-  <si>
-    <t>Bath Towel</t>
-  </si>
-  <si>
-    <t>https://www.jiomart.com/images/product/original/493829715/status-grey-cotton-bath-towel-140x70-cm-product-images-o493829715-p602025104-0-202305311215.jpg?im=Resize=(420,420)</t>
-  </si>
-  <si>
-    <t>Status Grey Cotton Bath Towel 140x70 cm</t>
   </si>
   <si>
     <t>Discount</t>
@@ -465,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6507FEB1-34B4-40E2-AD31-0EA35535F449}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -497,7 +482,7 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -544,7 +529,7 @@
         <v>199</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="0">ROUND(ABS(D3/E3-1)*100,0)</f>
+        <f t="shared" ref="F3:F5" si="0">ROUND(ABS(D3/E3-1)*100,0)</f>
         <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -597,54 +582,6 @@
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>1005</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>199</v>
-      </c>
-      <c r="E6">
-        <v>399</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>1006</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>199</v>
-      </c>
-      <c r="E7">
-        <v>499</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -653,8 +590,6 @@
     <hyperlink ref="G3" r:id="rId2" xr:uid="{0B1F1544-0032-4F16-8F9E-C9540F249B08}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{12371689-BCDD-4577-AC39-BFADA05AA711}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{6CCC0F25-7EE3-4529-9633-923589A03AFB}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{E1710E4B-4BE2-4FCC-B0E6-1CD7D237478E}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{B9634C1B-4542-4A7C-B877-D1BC127BCBF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
